--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1343233.2528896</v>
+        <v>-1345914.115953009</v>
       </c>
     </row>
     <row r="7">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.43579197616224</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>234.3505915958485</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>16.13769909905741</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>69.31185905877234</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>352.5675468051541</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>293.3389913469906</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.2363872223835</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>157.5021778291021</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>223.5157404419913</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>387.8272405644532</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>103.634207381266</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>22.62006770919123</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.64725059288368</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462254</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1613,10 +1613,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>81.07546534818324</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428033</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>65.56423921895201</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>3.006892987834117</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>125.8152577453153</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>32.81060261323905</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>247.5867185477173</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>181.3074675142866</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.848651279277</v>
+        <v>805.9975561066591</v>
       </c>
       <c r="C2" t="n">
-        <v>475.8861343388652</v>
+        <v>437.0350391662474</v>
       </c>
       <c r="D2" t="n">
-        <v>117.6204357321147</v>
+        <v>437.0350391662474</v>
       </c>
       <c r="E2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218651</v>
+        <v>805.9975561066591</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>143.6627691908473</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143501</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>1057.327935297105</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>619.8914390106347</v>
+        <v>1590.046140078022</v>
       </c>
       <c r="C4" t="n">
-        <v>619.8914390106347</v>
+        <v>1590.046140078022</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106347</v>
+        <v>1439.929500665686</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>1292.016407083293</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2236.777441110473</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>2236.777441110473</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>2220.476734949809</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.344461831649</v>
+        <v>2220.476734949809</v>
       </c>
       <c r="X4" t="n">
-        <v>1022.332482984405</v>
+        <v>1992.487184051791</v>
       </c>
       <c r="Y4" t="n">
-        <v>801.5399038408744</v>
+        <v>1771.694604908261</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1452.155307492517</v>
+        <v>861.3216348137582</v>
       </c>
       <c r="C5" t="n">
-        <v>1083.192790552105</v>
+        <v>492.3591178733465</v>
       </c>
       <c r="D5" t="n">
-        <v>724.9270919453545</v>
+        <v>492.3591178733465</v>
       </c>
       <c r="E5" t="n">
-        <v>724.9270919453545</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>717.981591196151</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.89447953245</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>2228.89447953245</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y5" t="n">
-        <v>1838.755147556638</v>
+        <v>861.3216348137582</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>482.9033490193025</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L6" t="n">
-        <v>777.6069060507741</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009994</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.154053606939</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783101</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>474.7770143030104</v>
+        <v>623.9439354791607</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8408313751036</v>
+        <v>623.9439354791607</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
         <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V7" t="n">
-        <v>859.5709967387889</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W7" t="n">
-        <v>859.5709967387889</v>
+        <v>1254.374530350948</v>
       </c>
       <c r="X7" t="n">
-        <v>631.5814458407716</v>
+        <v>1026.384979452931</v>
       </c>
       <c r="Y7" t="n">
-        <v>631.5814458407716</v>
+        <v>805.5924003094004</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2228.89447953245</v>
+        <v>1966.993846941859</v>
       </c>
       <c r="C8" t="n">
-        <v>1859.931962592038</v>
+        <v>1598.031330001447</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>1239.765631394697</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>853.9773787964523</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>442.9914740068447</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="Y8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>831.7113734044287</v>
+        <v>472.6531669530527</v>
       </c>
       <c r="C10" t="n">
-        <v>662.7751904765219</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="D10" t="n">
-        <v>662.7751904765219</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941287</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F10" t="n">
         <v>367.9721493962184</v>
@@ -4954,58 +4954,58 @@
         <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1314.385412508333</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1314.385412508333</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V10" t="n">
-        <v>1059.700924302446</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="W10" t="n">
-        <v>1059.700924302446</v>
+        <v>700.6427178510701</v>
       </c>
       <c r="X10" t="n">
-        <v>831.7113734044287</v>
+        <v>472.6531669530527</v>
       </c>
       <c r="Y10" t="n">
-        <v>831.7113734044287</v>
+        <v>472.6531669530527</v>
       </c>
     </row>
     <row r="11">
@@ -5030,31 +5030,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.2677182139856</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>530.3315352860787</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860787</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036856</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057753</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5261,7 +5261,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400699</v>
+        <v>741.8431516380876</v>
       </c>
       <c r="C16" t="n">
-        <v>344.917417812163</v>
+        <v>572.9069687101808</v>
       </c>
       <c r="D16" t="n">
-        <v>344.917417812163</v>
+        <v>572.9069687101808</v>
       </c>
       <c r="E16" t="n">
-        <v>344.917417812163</v>
+        <v>424.9938751277876</v>
       </c>
       <c r="F16" t="n">
-        <v>344.917417812163</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270429</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279801</v>
@@ -5455,10 +5455,10 @@
         <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487566</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138397</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703096</v>
+        <v>923.4916164683274</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>697.5276345711974</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
         <v>402.7245934908939</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2380.736579318693</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2161.135114341634</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1872.059887685832</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1617.375399479945</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.958229442984</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.968678544967</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>879.1760994014371</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E22" t="n">
-        <v>264.0500279773688</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>264.0500279773688</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>96.85392869224876</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>96.85392869224876</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2319.876964645598</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="23">
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>955.2822768769994</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>734.4896977334693</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150025</v>
@@ -6844,10 +6844,10 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,25 +6859,25 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,31 +7096,31 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,31 +7312,31 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384025</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7573,16 +7573,16 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973196</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7810,7 +7810,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>30.36925650589494</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>35.91627445172469</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>186.4490126143851</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>114.3555089013345</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>186.4490126143845</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515147</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>310.2980496873183</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>23.10143382040258</v>
+        <v>212.263561891669</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>151.8873470602051</v>
       </c>
     </row>
     <row r="3">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>117.1847295890536</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>64.345582674748</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194356</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.4620467826926</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>78.25894333073141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>55.21102825632927</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>147.0213775686983</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>104.8770068749575</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154574</v>
+        <v>135401.7127154575</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728568</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="F2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="G2" t="n">
         <v>161429.3199380012</v>
@@ -26338,22 +26338,22 @@
         <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380011</v>
       </c>
       <c r="L2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="M2" t="n">
         <v>164208.3539728567</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="O2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="P2" t="n">
         <v>164208.3539728568</v>
-      </c>
-      <c r="N2" t="n">
-        <v>164208.3539728568</v>
-      </c>
-      <c r="O2" t="n">
-        <v>164208.3539728566</v>
-      </c>
-      <c r="P2" t="n">
-        <v>164208.3539728569</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>4.263256414560601e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50904.45160960688</v>
+        <v>50904.4516096068</v>
       </c>
       <c r="C4" t="n">
+        <v>133113.8635467444</v>
+      </c>
+      <c r="D4" t="n">
         <v>133113.8635467443</v>
       </c>
-      <c r="D4" t="n">
-        <v>133113.8635467444</v>
-      </c>
       <c r="E4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719688</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719689</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719719</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="L4" t="n">
         <v>15498.22772481313</v>
       </c>
       <c r="M4" t="n">
+        <v>15498.22772481316</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15498.22772481315</v>
+      </c>
+      <c r="O4" t="n">
         <v>15498.22772481312</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15498.22772481314</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15498.22772481315</v>
       </c>
       <c r="P4" t="n">
         <v>15498.22772481314</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1123192.294909914</v>
+        <v>-1123552.377925632</v>
       </c>
       <c r="C6" t="n">
-        <v>-61843.28201373227</v>
+        <v>-61843.2820137323</v>
       </c>
       <c r="D6" t="n">
-        <v>-61843.28201373236</v>
+        <v>-61843.28201373224</v>
       </c>
       <c r="E6" t="n">
-        <v>-454686.0199721715</v>
+        <v>-454720.757897607</v>
       </c>
       <c r="F6" t="n">
-        <v>52799.42165237443</v>
+        <v>52764.68372693882</v>
       </c>
       <c r="G6" t="n">
-        <v>52799.42165237443</v>
+        <v>52764.68372693873</v>
       </c>
       <c r="H6" t="n">
-        <v>52799.42165237437</v>
+        <v>52764.68372693865</v>
       </c>
       <c r="I6" t="n">
-        <v>52799.42165237437</v>
+        <v>52764.6837269387</v>
       </c>
       <c r="J6" t="n">
-        <v>-114805.7561576081</v>
+        <v>-114840.4940830439</v>
       </c>
       <c r="K6" t="n">
-        <v>52799.42165237443</v>
+        <v>52764.68372693862</v>
       </c>
       <c r="L6" t="n">
-        <v>26118.29240049646</v>
+        <v>26118.29240049652</v>
       </c>
       <c r="M6" t="n">
-        <v>-87061.28333479847</v>
+        <v>-87061.2833347985</v>
       </c>
       <c r="N6" t="n">
+        <v>45546.01039412813</v>
+      </c>
+      <c r="O6" t="n">
         <v>45546.01039412821</v>
       </c>
-      <c r="O6" t="n">
-        <v>45546.01039412807</v>
-      </c>
       <c r="P6" t="n">
-        <v>45546.01039412833</v>
+        <v>45546.01039412824</v>
       </c>
     </row>
   </sheetData>
@@ -26716,13 +26716,13 @@
         <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203972</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>388.4462689525514</v>
+        <v>199.2841408812849</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>235.9999442247706</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>156.3977963302648</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>29.36282326710767</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>118.2087114259634</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.59559295955376</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>129.0208205074889</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>131.1673011786917</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>23.72046220850081</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>63.61261371736181</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>198.1286282880207</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28333,10 +28333,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>639.4703354763103</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32242,7 +32242,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159425</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>225.4828684302377</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,7 +32558,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>597.1709559744729</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,7 +32567,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>595.3857163736981</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,7 +32804,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32953,7 +32953,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,13 +33734,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>687.0167715190038</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33971,13 +33971,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>687.0167715190038</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>93.34947739681233</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>427.1133740445987</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>373.0365088578699</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>230.836231232189</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>553.3803448964251</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750469</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>508.128623392977</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899061</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060437</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>82.88662398579324</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,7 +36206,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>455.0369220524547</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,7 +36215,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36361,10 +36361,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>453.2516824516798</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,7 +36452,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
         <v>418.6266618111712</v>
@@ -37382,13 +37382,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>544.4205270745593</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37479,10 +37479,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37619,13 +37619,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>544.4205270745593</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
